--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_3_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_3_genetic_schedule.xlsx
@@ -520,132 +520,148 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>AS 204 - Astronomy
+2D
+Room 165</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>MA 324 - Mathematics
+2A
+Room 134</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+      <c r="D4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+      <c r="D5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n"/>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>CA 310 - Computer Applications
+2C
+Room 148</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>BA 418 - Business Analytics
+3C
+Room 193</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>OS 404 - Operating Systems
+3A
+Room 118</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="F13" s="2" t="n"/>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
           <t>AR 432 - Art Criticism
 3E
 Room 227</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>OS 404 - Operating Systems
-3A
-Room 118</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>BA 418 - Business Analytics
-3C
-Room 193</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="n"/>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-    </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
         <is>
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>AS 204 - Astronomy
-2D
-Room 165</t>
-        </is>
-      </c>
+      <c r="B15" s="2" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -669,7 +685,6 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -693,52 +708,49 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>CA 310 - Computer Applications
-2C
-Room 33</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
+          <t>AR 432 - Art Criticism
+3E
+Room 228</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="n"/>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="n"/>
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>OS 404 - Operating Systems
 3A
 Room 199</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>BA 418 - Business Analytics
 3C
 Room 213</t>
         </is>
       </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="D23" s="2" t="n"/>
-      <c r="E23" s="2" t="n"/>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
+      <c r="E24" s="2" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -746,13 +758,8 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>AR 432 - Art Criticism
-3E
-Room 228</t>
-        </is>
-      </c>
+      <c r="B25" s="2" t="n"/>
+      <c r="E25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -771,15 +778,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="B14:B17"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="E23:E25"/>
     <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B5:B9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_3_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_3_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,48 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +121,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,18 +581,20 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>AS 204 - Astronomy
-2D
-Room 165</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>MA 324 - Mathematics
-2A
-Room 134</t>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>B2 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr">
+        <is>
+          <t>C2 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
         </is>
       </c>
     </row>
@@ -539,8 +604,8 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
-      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="4" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -548,8 +613,8 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
-      <c r="D4" s="2" t="n"/>
+      <c r="E4" s="3" t="n"/>
+      <c r="F4" s="4" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -557,8 +622,38 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
-      <c r="D5" s="2" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>IS 313 - Quantitative Methods
+3A
+Room 303
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>IS 313 - Quantitative Methods
+3A
+Room 573
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="F5" s="7" t="inlineStr">
+        <is>
+          <t>C1 ITE 215 - Installation of Hardware and Software
+2C
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -566,7 +661,10 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n"/>
+      <c r="B6" s="5" t="n"/>
+      <c r="C6" s="6" t="n"/>
+      <c r="E6" s="5" t="n"/>
+      <c r="F6" s="7" t="n"/>
     </row>
     <row r="7" ht="50" customHeight="1">
       <c r="A7" s="2" t="inlineStr">
@@ -574,13 +672,10 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>CA 310 - Computer Applications
-2C
-Room 148</t>
-        </is>
-      </c>
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="6" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -588,7 +683,6 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -617,18 +711,20 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>BA 418 - Business Analytics
-3C
-Room 193</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>OS 404 - Operating Systems
-3A
-Room 118</t>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 215 - Installation of Hardware and Software
+2B
+Room 208
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>A1 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
         </is>
       </c>
     </row>
@@ -638,8 +734,8 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="B13" s="6" t="n"/>
+      <c r="E13" s="8" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -647,13 +743,8 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>AR 432 - Art Criticism
-3E
-Room 227</t>
-        </is>
-      </c>
+      <c r="B14" s="6" t="n"/>
+      <c r="E14" s="8" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -661,7 +752,30 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n"/>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>A1 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>A2 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E15" s="9" t="inlineStr">
+        <is>
+          <t>A2 ITE 215 - Installation of Hardware and Software
+2A
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -669,7 +783,9 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n"/>
+      <c r="B16" s="8" t="n"/>
+      <c r="C16" s="9" t="n"/>
+      <c r="E16" s="9" t="n"/>
     </row>
     <row r="17" ht="50" customHeight="1">
       <c r="A17" s="2" t="inlineStr">
@@ -677,7 +793,17 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
+      <c r="B17" s="8" t="n"/>
+      <c r="C17" s="9" t="n"/>
+      <c r="D17" s="7" t="inlineStr">
+        <is>
+          <t>C1 ITE 215 - Installation of Hardware and Software
+2C
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E17" s="9" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -685,6 +811,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
+      <c r="D18" s="7" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -692,6 +819,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
+      <c r="D19" s="7" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -706,11 +834,44 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>AR 432 - Art Criticism
-3E
-Room 228</t>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>C2 ITE 215 - Installation of Hardware and Software
+2B
+Room 310
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>C2 ITE 215 - Installation of Hardware and Software
+2B
+Room 305
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>A1 ITE 215 - Installation of Hardware and Software
+2A
+Room 303
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="E21" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 215 - Installation of Hardware and Software
+2B
+Room 304
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="inlineStr">
+        <is>
+          <t>A2 ITE 215 - Installation of Hardware and Software
+2A
+Room 304
+Emp: 3</t>
         </is>
       </c>
     </row>
@@ -720,7 +881,11 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
+      <c r="B22" s="4" t="n"/>
+      <c r="C22" s="4" t="n"/>
+      <c r="D22" s="8" t="n"/>
+      <c r="E22" s="6" t="n"/>
+      <c r="F22" s="9" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -728,14 +893,11 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n"/>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>OS 404 - Operating Systems
-3A
-Room 199</t>
-        </is>
-      </c>
+      <c r="B23" s="4" t="n"/>
+      <c r="C23" s="4" t="n"/>
+      <c r="D23" s="8" t="n"/>
+      <c r="E23" s="6" t="n"/>
+      <c r="F23" s="9" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -743,14 +905,18 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>BA 418 - Business Analytics
-3C
-Room 213</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>B2 ITE 215 - Installation of Hardware and Software
+2B
+Room 208
+Emp: 3</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="n"/>
+      <c r="D24" s="8" t="n"/>
+      <c r="E24" s="6" t="n"/>
+      <c r="F24" s="9" t="n"/>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -758,8 +924,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
-      <c r="E25" s="2" t="n"/>
+      <c r="B25" s="3" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -767,7 +932,7 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
+      <c r="B26" s="3" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -777,16 +942,25 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="F12:F13"/>
+  <mergeCells count="18">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F2:F4"/>
     <mergeCell ref="B21:B23"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="E21:E24"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="B5:B7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
